--- a/data/tables/balancing_stats.xlsx
+++ b/data/tables/balancing_stats.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottlee/code/fairness/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0813CFC-CE26-5F4C-82B4-9D3E90DA3024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8A98ED-FD59-9C49-B2B2-A3F456E99AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14240"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balancing_stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>n</t>
   </si>
@@ -40,21 +51,6 @@
     <t>rel_mean_tpr_diff</t>
   </si>
   <si>
-    <t>rel_max_tpr_diff</t>
-  </si>
-  <si>
-    <t>tpr</t>
-  </si>
-  <si>
-    <t>mean_tpr</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>mean_cp</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -79,13 +75,25 @@
     <t>rel_acc_diff</t>
   </si>
   <si>
-    <t>adj type</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>n_params</t>
+  </si>
+  <si>
+    <t>new_mean_cp</t>
+  </si>
+  <si>
+    <t>old_mean_cp</t>
+  </si>
+  <si>
+    <t>rel_cp_diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -563,17 +571,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -929,417 +936,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="14" width="10.83203125" style="1"/>
+    <col min="4" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>22406</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.88114790681067501</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.87666578052744903</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>-5.0866900421396698E-3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.36244416938461199</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.33881253711159898</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>-6.5200751644417507E-2</v>
       </c>
-      <c r="J2" s="1">
-        <v>-0.86260532789723998</v>
-      </c>
       <c r="K2" s="1">
-        <v>8.77770078844264E-16</v>
+        <v>0.11151320089597901</v>
       </c>
       <c r="L2" s="1">
-        <v>2.92590026281421E-16</v>
+        <v>2.89698820488126E-16</v>
       </c>
       <c r="M2" s="1">
-        <v>1.16573417585641E-15</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.89698820488126E-16</v>
+        <f t="shared" ref="M2:M5" si="0">(L2-K2)/K2</f>
+        <v>-0.99999999999999734</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1885</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.73899204244031802</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.70730329142003701</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>-4.2881044991550703E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.67031727621737003</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.63068163591980098</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>-5.9129671431466399E-2</v>
       </c>
-      <c r="J3" s="1">
-        <v>-0.31234675540309298</v>
-      </c>
       <c r="K3" s="1">
-        <v>1.11022302462515E-16</v>
+        <v>6.9198997302474502E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>3.7007434154171803E-17</v>
+        <v>2.5442610980993099E-17</v>
       </c>
       <c r="M3" s="1">
-        <v>1.11022302462515E-16</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.5442610980993099E-17</v>
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999956</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1490</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.78255033557046905</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.72907556090133996</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>-6.83339744914261E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.78237916746213598</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.72700897889311</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>-7.0771552811962193E-2</v>
       </c>
-      <c r="J4" s="1">
-        <v>-0.18110329622004601</v>
-      </c>
       <c r="K4" s="1">
-        <v>3.5527136788005001E-15</v>
+        <v>4.5611147824511998E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8817841970012504E-16</v>
+        <v>2.5403290582204299E-16</v>
       </c>
       <c r="M4" s="1">
-        <v>3.5527136788005001E-15</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.5403290582204299E-16</v>
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999434</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>5875</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.92663829787233998</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.90675168556046704</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>-2.1461030002250799E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.91823703827991998</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.89102452081752104</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>-2.96356129495433E-2</v>
       </c>
-      <c r="J5" s="1">
-        <v>-0.103100045084645</v>
-      </c>
       <c r="K5" s="1">
-        <v>1.11022302462515E-16</v>
+        <v>3.77003564900662E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>3.7007434154171803E-17</v>
+        <v>1.93518041097857E-16</v>
       </c>
       <c r="M5" s="1">
-        <v>1.5838025335668199E-15</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.93518041097857E-16</v>
+        <f t="shared" si="0"/>
+        <v>-0.99999999999999489</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C7">
         <v>22406</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.88114790681067501</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.82651968222797401</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>-6.1996657043002702E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.36244416938461199</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.33270911922669599</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>-8.2040360059875403E-2</v>
       </c>
-      <c r="J7" s="1">
-        <v>-0.93636363636363595</v>
-      </c>
       <c r="K7" s="1">
-        <v>4.1440168800514904E-3</v>
+        <v>0.11151320089597901</v>
       </c>
       <c r="L7" s="1">
-        <v>3.6112938987568201E-3</v>
+        <v>6.0017252378898002E-3</v>
       </c>
       <c r="M7" s="1">
-        <v>1.7049924898075899E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6.0017252378898002E-3</v>
+        <f>(L7-K7)/K7</f>
+        <v>-0.94617923985978758</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1885</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.73899204244031802</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.605835543766578</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-0.18018664752333099</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.67031727621737003</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.524634369035892</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>-0.217334257000762</v>
       </c>
-      <c r="J8" s="1">
-        <v>-0.71212121212121204</v>
-      </c>
       <c r="K8" s="1">
-        <v>0.27276785714285701</v>
+        <v>6.9198997302474502E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>0.14527153153568001</v>
+        <v>0.155085235583174</v>
       </c>
       <c r="M8" s="1">
-        <v>0.33210296260320499</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.155085235583174</v>
+        <f t="shared" ref="M8:M10" si="1">(L8-K8)/K8</f>
+        <v>1.2411485950480423</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1490</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.78255033557046905</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.41275167785234901</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>-0.47255574614065099</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.78237916746213598</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.42398558977603401</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>-0.458081698223957</v>
       </c>
-      <c r="J9" s="1">
-        <v>-0.81203007518796999</v>
-      </c>
       <c r="K9" s="1">
-        <v>0.13793103448275801</v>
+        <v>4.5611147824511998E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>9.3519484381876003E-2</v>
+        <v>6.60473065140115E-2</v>
       </c>
       <c r="M9" s="1">
-        <v>0.13793103448275801</v>
-      </c>
-      <c r="N9" s="1">
-        <v>6.60473065140115E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.44805183961007128</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
         <v>5875</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.92663829787233998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.81787234042553203</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>-0.11737692872887499</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.91823703827991998</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.782256067822509</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>-0.14808918044967501</v>
       </c>
-      <c r="J10" s="1">
-        <v>-0.33123028391167098</v>
-      </c>
       <c r="K10" s="1">
-        <v>0.13032990974167399</v>
+        <v>3.77003564900662E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>7.3856575614732495E-2</v>
+        <v>5.0074162765875098E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>0.13409391534391499</v>
-      </c>
-      <c r="N10" s="1">
-        <v>5.0074162765875098E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.32821456951128075</v>
       </c>
     </row>
   </sheetData>
